--- a/document/テスト仕様書/テスト仕様書.xlsx
+++ b/document/テスト仕様書/テスト仕様書.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-HLMSUMQ\Desktop\team_forest\document\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1CB42B-4685-40A3-B573-5D2B3756643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7E1CB42B-4685-40A3-B573-5D2B3756643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E97FD1-F446-4D6F-9931-945F2C14E3C7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="テスト項目" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -184,6 +184,271 @@
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jsp表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/FamilyGenealogy/index.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jspを開く</t>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp動作（Login）</t>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idとpass入力後ログインをクリック</t>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idに合ったnameのページに遷移する</t>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jspの表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup.jsp表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup.jsp動作</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力後ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントの追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainpage.jsp表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idとpassでログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿登録</t>
+    <rPh sb="0" eb="4">
+      <t>メイボトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目を入力し登録する</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿に登録される</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry.jsp動作</t>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry.jsp表示</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の表示確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動画面の表示確認</t>
+    <rPh sb="0" eb="4">
+      <t>キドウガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainpageを開く</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の表示確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ヒョウジカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jspを開く</t>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jspの表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signuo.jspを開く</t>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクの動作確認</t>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイパーリンク動作</t>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ハイパーリンクをクリック</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しいページに遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry.jspを開く</t>
+    <rPh sb="15" eb="16">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallmeibo.jsp表示</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallmeibo.jspを開く</t>
+    <rPh sb="17" eb="18">
+      <t>ヒラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,7 +460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +489,15 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -270,12 +544,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,8 +595,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -698,10 +979,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J23"/>
+  <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -746,137 +1027,219 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G3" s="11"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J3" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <v>8</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -889,7 +1252,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -902,7 +1265,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -915,7 +1278,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -924,11 +1287,11 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -937,11 +1300,11 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -954,7 +1317,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -967,7 +1330,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -980,7 +1343,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -993,7 +1356,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -1001,12 +1364,12 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -1014,24 +1377,53 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="8">
+        <v>22</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="8">
+        <v>23</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:G21">
+  <conditionalFormatting sqref="G3:G23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G21" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G23" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>" ,合格,不合格,-"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{162F50C5-3883-4F5B-B344-FDA1EEAC2C4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/document/テスト仕様書/テスト仕様書.xlsx
+++ b/document/テスト仕様書/テスト仕様書.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7E1CB42B-4685-40A3-B573-5D2B3756643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E97FD1-F446-4D6F-9931-945F2C14E3C7}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7E1CB42B-4685-40A3-B573-5D2B3756643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13177F9F-55E6-4654-BBDD-D2B03D68E4BD}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="テスト項目" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -38,23 +38,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・2019/12/11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・本アプリケーションは、テストの回答、採点を行うものである。</t>
-    <rPh sb="16" eb="18">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サイテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -93,35 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・テスト問題が正しく表示される。</t>
-    <rPh sb="4" eb="6">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・回答結果が正しく表示される。</t>
-    <rPh sb="1" eb="3">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -313,13 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>meiboentry.jsp動作</t>
-    <rPh sb="14" eb="16">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>meiboentry.jsp表示</t>
     <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
@@ -449,6 +399,729 @@
     <t>showallmeibo.jspを開く</t>
     <rPh sb="17" eb="18">
       <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editmeibo.jsp表示</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の表示確認</t>
+  </si>
+  <si>
+    <t>editmeibo.jspを開く</t>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editmeibo.jsp動作</t>
+    <rPh sb="13" eb="15">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿編集</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集を完了する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報が編集される</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meibo削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿を削除する</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallmeibo.jspで削除をクリック</t>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認のアラート表示後、選択した名簿情報が削除される</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヒョウジゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>メイボジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.jsp表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の表示確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.jspを開く</t>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.jsp動作</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集、削除の機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集、削除をクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面へ遷移
+削除ができる</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono_entry.jsp表示</t>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono_entry.jspを開く</t>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinaomono_entry.jsp表示</t>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物登録</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物が登録される</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry.jsp動作1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry.jsp動作2</t>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目の動作、画像表示、リセット</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ガゾウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目が動作する
+リセットされる</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono_entry.jsp動作1</t>
+    <rPh sb="19" eb="21">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono_entry.jsp動作2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目の動作、リセット</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目を入力する
+入力し直すを押す</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallshinamono.jsp表示</t>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallshinamono.jspを開く</t>
+    <rPh sb="21" eb="22">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallshinamono.jsp動作</t>
+    <rPh sb="20" eb="22">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絞り込み機能</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絞り込み機能を使う</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しく絞り込める</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono削除</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物を削除する</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showalｌshinamono.jspで削除をクリック</t>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認のアラート表示後、選択した品物情報が削除される</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヒョウジゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ediｔshinamono.jsp動作</t>
+    <rPh sb="17" eb="19">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物編集</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editshinamono.jsp表示</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editshinamono.jspを開く</t>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editshinamono.jsp表示、品物情報がすでに記入されている</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editmeibo.jsp表示
+名簿情報がすでに記入されている</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonthView表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonthView動作</t>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前月翌月、スケジュールが動作する</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンゲツヨクゲツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目をクリック</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作、遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewSchedule表示</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールイメージをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面が表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewSchedule動作</t>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールの登録</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールが登録される</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScheduleView表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditSchedule表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールの変更をクリック</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditSchedule動作</t>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールの編集</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目を入力し編集</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeleteCheck表示</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeleteCheck動作</t>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・本アプリケーションは、親族・知人の登録、品物の登録、スケジュール登録を行うものである。</t>
+    <rPh sb="12" eb="14">
+      <t>シンゾク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チジン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録情報が正しく表示される。</t>
+    <rPh sb="1" eb="5">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・情報を正しく登録される。</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールの削除をクリック</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールの削除</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除するスケジュール画面が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除するをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定のスケジュールが削除される</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout.jsp表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout.jspを開く</t>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout動作</t>
+    <rPh sb="6" eb="8">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト
+セッションを失う</t>
+    <rPh sb="12" eb="13">
+      <t>ウシナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -552,7 +1225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,6 +1271,9 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -622,6 +1298,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,12 +1569,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -904,28 +1585,28 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+      <c r="B3" s="2">
+        <v>45203</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -935,7 +1616,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -945,12 +1626,12 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -960,7 +1641,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -979,10 +1660,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J25"/>
+  <dimension ref="B2:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,31 +1681,31 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -1032,22 +1713,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -1055,16 +1736,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="13"/>
@@ -1076,16 +1757,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="13"/>
@@ -1097,16 +1778,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="13"/>
@@ -1118,16 +1799,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="13"/>
@@ -1139,16 +1820,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="13"/>
@@ -1160,16 +1841,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="13"/>
@@ -1181,16 +1862,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="13"/>
@@ -1202,16 +1883,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="13"/>
@@ -1223,16 +1904,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="13"/>
@@ -1243,10 +1924,18 @@
       <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -1256,10 +1945,18 @@
       <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -1269,23 +1966,39 @@
       <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8">
         <v>14</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="C16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -1295,25 +2008,41 @@
       <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="8">
         <v>16</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="C18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="12"/>
     </row>
@@ -1321,12 +2050,20 @@
       <c r="B19" s="8">
         <v>17</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="12"/>
     </row>
@@ -1334,12 +2071,20 @@
       <c r="B20" s="8">
         <v>18</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="C20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="12"/>
     </row>
@@ -1347,10 +2092,18 @@
       <c r="B21" s="8">
         <v>19</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
@@ -1360,10 +2113,18 @@
       <c r="B22" s="8">
         <v>20</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
@@ -1373,10 +2134,18 @@
       <c r="B23" s="8">
         <v>21</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
@@ -1386,37 +2155,487 @@
       <c r="B24" s="8">
         <v>22</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="C24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="11"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="8">
         <v>23</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="C25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="11"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="13"/>
       <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="8">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="8">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="8">
+        <v>26</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="8">
+        <v>27</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="8">
+        <v>28</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="8">
+        <v>29</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="8">
+        <v>30</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="8">
+        <v>31</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="8">
+        <v>32</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="8">
+        <v>33</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="8">
+        <v>34</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="8">
+        <v>35</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="8">
+        <v>36</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="8">
+        <v>37</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="8">
+        <v>38</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="8">
+        <v>39</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="8">
+        <v>40</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="8">
+        <v>41</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="8">
+        <v>42</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="8">
+        <v>43</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="8">
+        <v>44</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="8">
+        <v>45</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="8">
+        <v>46</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="8">
+        <v>47</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="8">
+        <v>48</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="8">
+        <v>49</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:G23">
+  <conditionalFormatting sqref="G30 G33 G36 G39 G42 G45 G48 G51 G3:G27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G23" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G51 G30 G33 G36 G39 G42 G45 G48 G3:G27" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>" ,合格,不合格,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/テスト仕様書/テスト仕様書.xlsx
+++ b/document/テスト仕様書/テスト仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-HLMSUMQ\Desktop\team_forest\document\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\team_forest - コピー\document\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1CB42B-4685-40A3-B573-5D2B3756643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7A192E-BE63-4E8C-BE20-523DBDF067D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="テスト項目" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="137">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・2019/12/11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
@@ -49,16 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・本アプリケーションは、テストの回答、採点を行うものである。</t>
-    <rPh sb="16" eb="18">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>観点</t>
     <rPh sb="0" eb="2">
       <t>カンテン</t>
@@ -93,35 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・テスト問題が正しく表示される。</t>
-    <rPh sb="4" eb="6">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・回答結果が正しく表示される。</t>
-    <rPh sb="1" eb="3">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -184,6 +141,1022 @@
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jsp表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/FamilyGenealogy/index.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jspを開く</t>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp動作（Login）</t>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idとpass入力後ログインをクリック</t>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idに合ったnameのページに遷移する</t>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.jspの表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup.jsp表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup.jsp動作</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力後ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントの追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainpage.jsp表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idとpassでログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿登録</t>
+    <rPh sb="0" eb="4">
+      <t>メイボトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目を入力し登録する</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿に登録される</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry.jsp表示</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の表示確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動画面の表示確認</t>
+    <rPh sb="0" eb="4">
+      <t>キドウガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainpageを開く</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の表示確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ヒョウジカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jspを開く</t>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jspの表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signuo.jspを開く</t>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクの動作確認</t>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイパーリンク動作</t>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ハイパーリンクをクリック</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しいページに遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry.jspを開く</t>
+    <rPh sb="15" eb="16">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallmeibo.jsp表示</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallmeibo.jspを開く</t>
+    <rPh sb="17" eb="18">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editmeibo.jsp表示</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の表示確認</t>
+  </si>
+  <si>
+    <t>editmeibo.jspを開く</t>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editmeibo.jsp動作</t>
+    <rPh sb="13" eb="15">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿編集</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集を完了する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報が編集される</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meibo削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿を削除する</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallmeibo.jspで削除をクリック</t>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認のアラート表示後、選択した名簿情報が削除される</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヒョウジゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>メイボジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.jsp表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の表示確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.jspを開く</t>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.jsp動作</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集、削除の機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集、削除をクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面へ遷移
+削除ができる</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono_entry.jsp表示</t>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono_entry.jspを開く</t>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinaomono_entry.jsp表示</t>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物登録</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物が登録される</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry.jsp動作1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry.jsp動作2</t>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目の動作、画像表示、リセット</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ガゾウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目が動作する
+リセットされる</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono_entry.jsp動作1</t>
+    <rPh sb="19" eb="21">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono_entry.jsp動作2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目の動作、リセット</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目を入力する
+入力し直すを押す</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallshinamono.jsp表示</t>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallshinamono.jspを開く</t>
+    <rPh sb="21" eb="22">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallshinamono.jsp動作</t>
+    <rPh sb="20" eb="22">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絞り込み機能</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絞り込み機能を使う</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しく絞り込める</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono削除</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物を削除する</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showalｌshinamono.jspで削除をクリック</t>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認のアラート表示後、選択した品物情報が削除される</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヒョウジゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ediｔshinamono.jsp動作</t>
+    <rPh sb="17" eb="19">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物編集</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editshinamono.jsp表示</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editshinamono.jspを開く</t>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editshinamono.jsp表示、品物情報がすでに記入されている</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editmeibo.jsp表示
+名簿情報がすでに記入されている</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonthView表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonthView動作</t>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前月翌月、スケジュールが動作する</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンゲツヨクゲツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目をクリック</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作、遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewSchedule表示</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールイメージをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面が表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewSchedule動作</t>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールの登録</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールが登録される</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScheduleView表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditSchedule表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールの変更をクリック</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditSchedule動作</t>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールの編集</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目を入力し編集</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeleteCheck表示</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeleteCheck動作</t>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・本アプリケーションは、親族・知人の登録、品物の登録、スケジュール登録を行うものである。</t>
+    <rPh sb="12" eb="14">
+      <t>シンゾク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チジン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録情報が正しく表示される。</t>
+    <rPh sb="1" eb="5">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・情報を正しく登録される。</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールの削除をクリック</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールの削除</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除するスケジュール画面が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除するをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定のスケジュールが削除される</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout.jsp表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout.jspを開く</t>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout動作</t>
+    <rPh sb="6" eb="8">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト
+セッションを失う</t>
+    <rPh sb="12" eb="13">
+      <t>ウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>　　　　合格</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　森岡</t>
+    <rPh sb="4" eb="6">
+      <t>モリオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　森岡</t>
+    <rPh sb="4" eb="5">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　森岡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　森岡</t>
+    <rPh sb="3" eb="5">
+      <t>モリオカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,7 +1168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +1197,15 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -270,12 +1252,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,8 +1303,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -341,6 +1333,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,12 +1604,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -623,28 +1620,28 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+      <c r="B3" s="2">
+        <v>45203</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -654,7 +1651,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -664,12 +1661,12 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -679,7 +1676,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -698,10 +1695,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J23"/>
+  <dimension ref="B2:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -719,319 +1716,1178 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="13">
+        <v>45204</v>
+      </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="13">
+        <v>45204</v>
+      </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="C7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="13">
+        <v>45204</v>
+      </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="C8" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="13">
+        <v>45204</v>
+      </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="C9" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="13">
+        <v>45204</v>
+      </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8">
         <v>8</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="13">
+        <v>45204</v>
+      </c>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="C11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="13">
+        <v>45204</v>
+      </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="13">
+        <v>45204</v>
+      </c>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="C13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="13">
+        <v>45204</v>
+      </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="C14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="13">
+        <v>45204</v>
+      </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="C15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="13">
+        <v>45204</v>
+      </c>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8">
         <v>14</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
+      <c r="C16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="13">
+        <v>45204</v>
+      </c>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
+      <c r="C17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="13">
+        <v>45204</v>
+      </c>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="8">
         <v>16</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
+      <c r="C18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="13">
+        <v>45204</v>
+      </c>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="8">
         <v>17</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
+      <c r="C19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="13">
+        <v>45204</v>
+      </c>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8">
         <v>18</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
+      <c r="C20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="13">
+        <v>45204</v>
+      </c>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="8">
         <v>19</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
+      <c r="C21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="13">
+        <v>45204</v>
+      </c>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8">
         <v>20</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="13">
+        <v>45204</v>
+      </c>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8">
         <v>21</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="13">
+        <v>45204</v>
+      </c>
       <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="8">
+        <v>22</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="8">
+        <v>23</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="8">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="8">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="8">
+        <v>26</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="8">
+        <v>27</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="8">
+        <v>28</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="8">
+        <v>29</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="8">
+        <v>30</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="8">
+        <v>31</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="8">
+        <v>32</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="8">
+        <v>33</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="8">
+        <v>34</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I36" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="8">
+        <v>35</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="8">
+        <v>36</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="8">
+        <v>37</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="8">
+        <v>38</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="8">
+        <v>39</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="8">
+        <v>40</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="8">
+        <v>41</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="8">
+        <v>42</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="8">
+        <v>43</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="8">
+        <v>44</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="8">
+        <v>45</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="8">
+        <v>46</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="8">
+        <v>47</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="8">
+        <v>48</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="8">
+        <v>49</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:G21">
+  <conditionalFormatting sqref="G3:G27 G30 G33 G36 G39 G42 G45 G48 G51">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G21" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G51 G30 G33 G36 G39 G42 G45 G48 G3:G27" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>" ,合格,不合格,-"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{162F50C5-3883-4F5B-B344-FDA1EEAC2C4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/document/テスト仕様書/テスト仕様書.xlsx
+++ b/document/テスト仕様書/テスト仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\team_forest - コピー\document\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7A192E-BE63-4E8C-BE20-523DBDF067D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3E7A192E-BE63-4E8C-BE20-523DBDF067D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B5DDAFB-5D24-4A92-B034-BD8ECD9662E4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="テスト項目" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -1157,6 +1157,324 @@
     <t>　　　森岡</t>
     <rPh sb="3" eb="5">
       <t>モリオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login 動作</t>
+    <rPh sb="6" eb="8">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインに失敗する</t>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しくないID,PASS入力</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainpageに行かずに、アラートが出る</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup 動作</t>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDかぶり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに登録済みのIDでサインアップする</t>
+    <rPh sb="3" eb="6">
+      <t>トウロクズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインアップの失敗</t>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout後動作</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションの確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレスにmainpageのurlを入力しダイレクト</t>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/FamilyGenealogy/MainPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainpageに遷移せず、login画面に遷移</t>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainpage表示</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名表示</t>
+    <rPh sb="3" eb="6">
+      <t>メイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名がヘッダーに表示されている</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry動作3</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラート確認</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目ごとに入力せずに登録ボタンを押す</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目に合ったアラートが表示</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meibo.entry動作4</t>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数、絵文字確認</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>エモジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目に絵文字を入力
+よみ、氏名、備考に文字数制限以上に入力する</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>エモジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="20" eb="27">
+      <t>モジスウセイゲンイジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よみ：30文字
+氏名：20文字
+備考：100文字</t>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラートが表示される</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editmeibo動作2</t>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録情報の有無</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editmeibo.jspを開く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録情報が入力されている</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meibo.entry動作5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日の設定</t>
+    <rPh sb="0" eb="3">
+      <t>タンジョウビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日を未来で設定する</t>
+    <rPh sb="0" eb="3">
+      <t>タンジョウビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日までの日付しか表示されず、未来では登録できない</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1695,10 +2013,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J51"/>
+  <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1831,26 +2149,20 @@
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="13">
-        <v>45204</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -1858,22 +2170,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" s="13">
         <v>45204</v>
@@ -1885,22 +2197,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="13">
         <v>45204</v>
@@ -1912,26 +2224,20 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I9" s="13">
-        <v>45204</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -1939,16 +2245,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>131</v>
@@ -1966,22 +2272,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I11" s="13">
         <v>45204</v>
@@ -1993,43 +2299,39 @@
         <v>10</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="13">
-        <v>45204</v>
-      </c>
-      <c r="J12" s="12"/>
+        <v>149</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>131</v>
@@ -2047,22 +2349,22 @@
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I14" s="13">
         <v>45204</v>
@@ -2074,43 +2376,37 @@
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="13">
-        <v>45204</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8">
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>94</v>
+        <v>45</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>131</v>
@@ -2128,16 +2424,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>131</v>
@@ -2150,21 +2446,21 @@
       </c>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="8">
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>131</v>
@@ -2182,80 +2478,64 @@
         <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="13">
-        <v>45204</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8">
         <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" s="13">
-        <v>45204</v>
-      </c>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="8">
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="13">
-        <v>45204</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2263,21 +2543,21 @@
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I22" s="13">
@@ -2285,26 +2565,26 @@
       </c>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8">
         <v>21</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I23" s="13">
@@ -2317,21 +2597,21 @@
         <v>22</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I24" s="13">
@@ -2344,43 +2624,37 @@
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="13">
-        <v>45204</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="8">
         <v>24</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>93</v>
+        <v>57</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>131</v>
@@ -2398,21 +2672,21 @@
         <v>25</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I27" s="13">
@@ -2420,26 +2694,26 @@
       </c>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8">
         <v>26</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I28" s="13">
@@ -2452,19 +2726,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>132</v>
+        <v>68</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>135</v>
@@ -2479,16 +2753,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>131</v>
@@ -2506,19 +2780,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>132</v>
+        <v>70</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>135</v>
@@ -2533,19 +2807,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>132</v>
+        <v>79</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>135</v>
@@ -2560,16 +2834,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>131</v>
@@ -2582,26 +2856,26 @@
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8">
         <v>32</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I34" s="13">
@@ -2614,19 +2888,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>132</v>
+      <c r="G35" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>135</v>
@@ -2636,24 +2910,24 @@
       </c>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="8">
         <v>34</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>131</v>
+        <v>88</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>135</v>
@@ -2668,16 +2942,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>132</v>
@@ -2694,104 +2968,216 @@
       <c r="B38" s="8">
         <v>36</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="C38" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="13">
+        <v>45204</v>
+      </c>
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="8">
         <v>37</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="13"/>
+      <c r="C39" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="13">
+        <v>45204</v>
+      </c>
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8">
         <v>38</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+      <c r="C40" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" s="13">
+        <v>45204</v>
+      </c>
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="8">
         <v>39</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="C41" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="13">
+        <v>45204</v>
+      </c>
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="8">
         <v>40</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="13"/>
+      <c r="C42" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" s="13">
+        <v>45204</v>
+      </c>
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="8">
         <v>41</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+      <c r="C43" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="13">
+        <v>45204</v>
+      </c>
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="8">
         <v>42</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
+      <c r="C44" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" s="13">
+        <v>45204</v>
+      </c>
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="8">
         <v>43</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="13"/>
+      <c r="C45" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" s="13">
+        <v>45204</v>
+      </c>
       <c r="J45" s="12"/>
     </row>
     <row r="46" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2815,9 +3201,9 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
+      <c r="I47" s="13"/>
       <c r="J47" s="12"/>
     </row>
     <row r="48" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2828,9 +3214,9 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="11"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="13"/>
+      <c r="I48" s="12"/>
       <c r="J48" s="12"/>
     </row>
     <row r="49" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2854,9 +3240,9 @@
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="G50" s="11"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+      <c r="I50" s="13"/>
       <c r="J50" s="12"/>
     </row>
     <row r="51" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2867,27 +3253,132 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="11"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="13"/>
+      <c r="I51" s="12"/>
       <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="8">
+        <v>50</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="8">
+        <v>51</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="8">
+        <v>52</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="8">
+        <v>53</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="8">
+        <v>54</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="8">
+        <v>55</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="8">
+        <v>56</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="8">
+        <v>57</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:G27 G30 G33 G36 G39 G42 G45 G48 G51">
+  <conditionalFormatting sqref="G3:G35 G38 G41 G44 G47 G50 G53 G56 G59">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G51 G30 G33 G36 G39 G42 G45 G48 G3:G27" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G59 G38 G41 G44 G47 G50 G53 G56 G3:G35" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>" ,合格,不合格,-"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{162F50C5-3883-4F5B-B344-FDA1EEAC2C4D}"/>
+    <hyperlink ref="J12" r:id="rId2" xr:uid="{5695FD68-F1F7-453C-B763-6689D861423A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
--- a/document/テスト仕様書/テスト仕様書.xlsx
+++ b/document/テスト仕様書/テスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/テスト仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\team_forest - コピー\document\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3E7A192E-BE63-4E8C-BE20-523DBDF067D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B5DDAFB-5D24-4A92-B034-BD8ECD9662E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFE8179-CDD0-4A23-8E49-0F6F3B4A8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="171">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -1476,6 +1476,10 @@
     <rPh sb="19" eb="21">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        森岡</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2015,8 +2019,8 @@
   </sheetPr>
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B59"/>
+    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2160,9 +2164,15 @@
       <c r="F6" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="G6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="13">
+        <v>45209</v>
+      </c>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2235,9 +2245,15 @@
       <c r="F9" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="G9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="13">
+        <v>45209</v>
+      </c>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2310,9 +2326,15 @@
       <c r="F12" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="G12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="13">
+        <v>45209</v>
+      </c>
       <c r="J12" s="14" t="s">
         <v>148</v>
       </c>
@@ -2387,9 +2409,15 @@
       <c r="F15" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="13">
+        <v>45209</v>
+      </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2489,9 +2517,15 @@
       <c r="F19" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="G19" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="13">
+        <v>45209</v>
+      </c>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2510,9 +2544,15 @@
       <c r="F20" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="G20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="13">
+        <v>45209</v>
+      </c>
       <c r="J20" s="12" t="s">
         <v>160</v>
       </c>
@@ -2533,9 +2573,15 @@
       <c r="F21" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="G21" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="13">
+        <v>45209</v>
+      </c>
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2635,9 +2681,15 @@
       <c r="F25" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="G25" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="13">
+        <v>45209</v>
+      </c>
       <c r="J25" s="12"/>
     </row>
     <row r="26" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/document/テスト仕様書/テスト仕様書.xlsx
+++ b/document/テスト仕様書/テスト仕様書.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\team_forest - コピー\document\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFE8179-CDD0-4A23-8E49-0F6F3B4A8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BAFE8179-CDD0-4A23-8E49-0F6F3B4A8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAAFD0C6-0249-47D1-BA10-1541124138C5}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="テスト項目" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="187">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -1191,13 +1191,6 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>signup 動作</t>
-    <rPh sb="7" eb="9">
-      <t>ドウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1480,6 +1473,143 @@
   </si>
   <si>
     <t xml:space="preserve">        森岡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数確認</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字入力</t>
+    <rPh sb="0" eb="4">
+      <t>モジニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6文字以上20文字以内でのみ登録可能</t>
+    <rPh sb="1" eb="5">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>モジイナイ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トウロクカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password確認</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤ったpass確認を入力</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラートが出る</t>
+    <rPh sb="5" eb="6">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup動作1</t>
+    <rPh sb="6" eb="8">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup動作2</t>
+    <rPh sb="6" eb="8">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup 動作3</t>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meibo.entry動作6</t>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像サイズ</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5MB以上の写真</t>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5MB以上はアラートが出る</t>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallmeibo.jsp表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XSS対策</t>
+    <rPh sb="3" eb="5">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリプトを打つ</t>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリプトの機能は動作しない</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1582,7 +1712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1630,6 +1760,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2017,10 +2150,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J59"/>
+  <dimension ref="B2:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2168,7 +2301,7 @@
         <v>131</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I6" s="13">
         <v>45209</v>
@@ -2234,26 +2367,20 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="13">
-        <v>45209</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2261,26 +2388,20 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="13">
-        <v>45204</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2288,25 +2409,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I11" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J11" s="12"/>
     </row>
@@ -2315,45 +2436,43 @@
         <v>10</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I12" s="13">
-        <v>45209</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>148</v>
-      </c>
+        <v>45204</v>
+      </c>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>131</v>
@@ -2371,16 +2490,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>131</v>
@@ -2389,34 +2508,36 @@
         <v>136</v>
       </c>
       <c r="I14" s="13">
-        <v>45204</v>
-      </c>
-      <c r="J14" s="12"/>
+        <v>45209</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8">
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I15" s="13">
-        <v>45209</v>
+        <v>45204</v>
       </c>
       <c r="J15" s="12"/>
     </row>
@@ -2425,22 +2546,22 @@
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I16" s="13">
         <v>45204</v>
@@ -2452,25 +2573,25 @@
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J17" s="12"/>
     </row>
@@ -2479,16 +2600,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>131</v>
@@ -2506,72 +2627,70 @@
         <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I19" s="13">
-        <v>45209</v>
+        <v>45204</v>
       </c>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8">
         <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20" s="13">
-        <v>45209</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45204</v>
+      </c>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="8">
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>131</v>
@@ -2584,85 +2703,81 @@
       </c>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I22" s="13">
-        <v>45204</v>
-      </c>
-      <c r="J22" s="12"/>
+        <v>45209</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="23" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8">
         <v>21</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>94</v>
+        <v>167</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I23" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8">
         <v>22</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="13">
-        <v>45204</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2670,16 +2785,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>131</v>
@@ -2688,52 +2803,46 @@
         <v>135</v>
       </c>
       <c r="I25" s="13">
-        <v>45209</v>
+        <v>45204</v>
       </c>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="8">
         <v>24</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="13">
-        <v>45204</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8">
         <v>25</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>131</v>
@@ -2751,16 +2860,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>131</v>
@@ -2778,48 +2887,48 @@
         <v>27</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I29" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="8">
         <v>28</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I30" s="13">
@@ -2832,21 +2941,21 @@
         <v>29</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I31" s="13">
@@ -2859,21 +2968,21 @@
         <v>30</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I32" s="13">
@@ -2886,16 +2995,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>131</v>
@@ -2908,26 +3017,26 @@
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8">
         <v>32</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>93</v>
+        <v>78</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I34" s="13">
@@ -2940,16 +3049,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>131</v>
@@ -2962,24 +3071,24 @@
       </c>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="8">
         <v>34</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>132</v>
+        <v>79</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>135</v>
@@ -2994,19 +3103,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>132</v>
+        <v>84</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>135</v>
@@ -3016,26 +3125,26 @@
       </c>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8">
         <v>36</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I38" s="13">
@@ -3048,19 +3157,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>132</v>
+        <v>54</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>135</v>
@@ -3070,21 +3179,21 @@
       </c>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8">
         <v>38</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>132</v>
@@ -3102,19 +3211,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>131</v>
+        <v>97</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>135</v>
@@ -3129,19 +3238,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>132</v>
+        <v>101</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>135</v>
@@ -3156,16 +3265,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>132</v>
@@ -3183,19 +3292,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>131</v>
+        <v>107</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>135</v>
@@ -3210,19 +3319,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>132</v>
+        <v>104</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>135</v>
@@ -3236,52 +3345,108 @@
       <c r="B46" s="8">
         <v>44</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="C46" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" s="13">
+        <v>45204</v>
+      </c>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="8">
         <v>45</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="13"/>
+      <c r="C47" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I47" s="13">
+        <v>45204</v>
+      </c>
       <c r="J47" s="12"/>
     </row>
     <row r="48" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="8">
         <v>46</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="C48" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I48" s="13">
+        <v>45204</v>
+      </c>
       <c r="J48" s="12"/>
     </row>
     <row r="49" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="8">
         <v>47</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
+      <c r="C49" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I49" s="13">
+        <v>45204</v>
+      </c>
       <c r="J49" s="12"/>
     </row>
     <row r="50" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3292,9 +3457,9 @@
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="11"/>
+      <c r="G50" s="12"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="13"/>
+      <c r="I50" s="12"/>
       <c r="J50" s="12"/>
     </row>
     <row r="51" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3305,9 +3470,9 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="G51" s="11"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3331,9 +3496,9 @@
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="11"/>
+      <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-      <c r="I53" s="13"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="12"/>
     </row>
     <row r="54" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3344,9 +3509,9 @@
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
+      <c r="I54" s="13"/>
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3370,9 +3535,9 @@
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="11"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="13"/>
+      <c r="I56" s="12"/>
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3383,9 +3548,9 @@
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
+      <c r="I57" s="13"/>
       <c r="J57" s="12"/>
     </row>
     <row r="58" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3409,26 +3574,78 @@
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="11"/>
+      <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="13"/>
+      <c r="I59" s="12"/>
       <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="8">
+        <v>58</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="8">
+        <v>59</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="8">
+        <v>60</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="8">
+        <v>61</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:G35 G38 G41 G44 G47 G50 G53 G56 G59">
+  <conditionalFormatting sqref="G3:G39 G42 G45 G48 G51 G54 G57 G60 G63">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G59 G38 G41 G44 G47 G50 G53 G56 G3:G35" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63 G42 G45 G48 G51 G54 G57 G60 G3:G39" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>" ,合格,不合格,-"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{162F50C5-3883-4F5B-B344-FDA1EEAC2C4D}"/>
-    <hyperlink ref="J12" r:id="rId2" xr:uid="{5695FD68-F1F7-453C-B763-6689D861423A}"/>
+    <hyperlink ref="J14" r:id="rId2" xr:uid="{5695FD68-F1F7-453C-B763-6689D861423A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId3"/>

--- a/document/テスト仕様書/テスト仕様書.xlsx
+++ b/document/テスト仕様書/テスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\team_forest - コピー\document\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-M15BVIK\Desktop\team_forest\document\テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFE8179-CDD0-4A23-8E49-0F6F3B4A8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885E2C4F-6F20-4FB0-963C-6D1098961A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -2019,7 +2019,7 @@
   </sheetPr>
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/document/テスト仕様書/テスト仕様書.xlsx
+++ b/document/テスト仕様書/テスト仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-M15BVIK\Desktop\team_forest\document\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885E2C4F-6F20-4FB0-963C-6D1098961A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BAFE8179-CDD0-4A23-8E49-0F6F3B4A8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAAFD0C6-0249-47D1-BA10-1541124138C5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="テスト項目" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="187">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -1191,13 +1191,6 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>signup 動作</t>
-    <rPh sb="7" eb="9">
-      <t>ドウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1480,6 +1473,143 @@
   </si>
   <si>
     <t xml:space="preserve">        森岡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数確認</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字入力</t>
+    <rPh sb="0" eb="4">
+      <t>モジニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6文字以上20文字以内でのみ登録可能</t>
+    <rPh sb="1" eb="5">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>モジイナイ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トウロクカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password確認</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤ったpass確認を入力</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラートが出る</t>
+    <rPh sb="5" eb="6">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup動作1</t>
+    <rPh sb="6" eb="8">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup動作2</t>
+    <rPh sb="6" eb="8">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup 動作3</t>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meibo.entry動作6</t>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像サイズ</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5MB以上の写真</t>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5MB以上はアラートが出る</t>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showallmeibo.jsp表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XSS対策</t>
+    <rPh sb="3" eb="5">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリプトを打つ</t>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリプトの機能は動作しない</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1582,7 +1712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1630,6 +1760,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2017,10 +2150,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J59"/>
+  <dimension ref="B2:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2168,7 +2301,7 @@
         <v>131</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I6" s="13">
         <v>45209</v>
@@ -2234,26 +2367,20 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="13">
-        <v>45209</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2261,26 +2388,20 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="13">
-        <v>45204</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2288,25 +2409,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I11" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J11" s="12"/>
     </row>
@@ -2315,45 +2436,43 @@
         <v>10</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I12" s="13">
-        <v>45209</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>148</v>
-      </c>
+        <v>45204</v>
+      </c>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>131</v>
@@ -2371,16 +2490,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>131</v>
@@ -2389,34 +2508,36 @@
         <v>136</v>
       </c>
       <c r="I14" s="13">
-        <v>45204</v>
-      </c>
-      <c r="J14" s="12"/>
+        <v>45209</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8">
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I15" s="13">
-        <v>45209</v>
+        <v>45204</v>
       </c>
       <c r="J15" s="12"/>
     </row>
@@ -2425,22 +2546,22 @@
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I16" s="13">
         <v>45204</v>
@@ -2452,25 +2573,25 @@
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J17" s="12"/>
     </row>
@@ -2479,16 +2600,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>131</v>
@@ -2506,72 +2627,70 @@
         <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I19" s="13">
-        <v>45209</v>
+        <v>45204</v>
       </c>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8">
         <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20" s="13">
-        <v>45209</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45204</v>
+      </c>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="8">
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>131</v>
@@ -2584,85 +2703,81 @@
       </c>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I22" s="13">
-        <v>45204</v>
-      </c>
-      <c r="J22" s="12"/>
+        <v>45209</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="23" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8">
         <v>21</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>94</v>
+        <v>167</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I23" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8">
         <v>22</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="13">
-        <v>45204</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2670,16 +2785,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>131</v>
@@ -2688,52 +2803,46 @@
         <v>135</v>
       </c>
       <c r="I25" s="13">
-        <v>45209</v>
+        <v>45204</v>
       </c>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="8">
         <v>24</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="13">
-        <v>45204</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8">
         <v>25</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>131</v>
@@ -2751,16 +2860,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>131</v>
@@ -2778,48 +2887,48 @@
         <v>27</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I29" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="8">
         <v>28</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I30" s="13">
@@ -2832,21 +2941,21 @@
         <v>29</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I31" s="13">
@@ -2859,21 +2968,21 @@
         <v>30</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I32" s="13">
@@ -2886,16 +2995,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>131</v>
@@ -2908,26 +3017,26 @@
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8">
         <v>32</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>93</v>
+        <v>78</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I34" s="13">
@@ -2940,16 +3049,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>131</v>
@@ -2962,24 +3071,24 @@
       </c>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="8">
         <v>34</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>132</v>
+        <v>79</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>135</v>
@@ -2994,19 +3103,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>132</v>
+        <v>84</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>135</v>
@@ -3016,26 +3125,26 @@
       </c>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8">
         <v>36</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I38" s="13">
@@ -3048,19 +3157,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>132</v>
+        <v>54</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>135</v>
@@ -3070,21 +3179,21 @@
       </c>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8">
         <v>38</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>132</v>
@@ -3102,19 +3211,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>131</v>
+        <v>97</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>135</v>
@@ -3129,19 +3238,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>132</v>
+        <v>101</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>135</v>
@@ -3156,16 +3265,16 @@
         <v>41</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>132</v>
@@ -3183,19 +3292,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>131</v>
+        <v>107</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>135</v>
@@ -3210,19 +3319,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>132</v>
+        <v>104</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>135</v>
@@ -3236,52 +3345,108 @@
       <c r="B46" s="8">
         <v>44</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="C46" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" s="13">
+        <v>45204</v>
+      </c>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="8">
         <v>45</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="13"/>
+      <c r="C47" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I47" s="13">
+        <v>45204</v>
+      </c>
       <c r="J47" s="12"/>
     </row>
     <row r="48" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="8">
         <v>46</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="C48" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I48" s="13">
+        <v>45204</v>
+      </c>
       <c r="J48" s="12"/>
     </row>
     <row r="49" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="8">
         <v>47</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
+      <c r="C49" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I49" s="13">
+        <v>45204</v>
+      </c>
       <c r="J49" s="12"/>
     </row>
     <row r="50" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3292,9 +3457,9 @@
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="11"/>
+      <c r="G50" s="12"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="13"/>
+      <c r="I50" s="12"/>
       <c r="J50" s="12"/>
     </row>
     <row r="51" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3305,9 +3470,9 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="G51" s="11"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="I51" s="13"/>
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3331,9 +3496,9 @@
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="11"/>
+      <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-      <c r="I53" s="13"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="12"/>
     </row>
     <row r="54" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3344,9 +3509,9 @@
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
+      <c r="I54" s="13"/>
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3370,9 +3535,9 @@
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="11"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="13"/>
+      <c r="I56" s="12"/>
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3383,9 +3548,9 @@
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
+      <c r="I57" s="13"/>
       <c r="J57" s="12"/>
     </row>
     <row r="58" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3409,26 +3574,78 @@
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="11"/>
+      <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="13"/>
+      <c r="I59" s="12"/>
       <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="8">
+        <v>58</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="8">
+        <v>59</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="8">
+        <v>60</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="8">
+        <v>61</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:G35 G38 G41 G44 G47 G50 G53 G56 G59">
+  <conditionalFormatting sqref="G3:G39 G42 G45 G48 G51 G54 G57 G60 G63">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G59 G38 G41 G44 G47 G50 G53 G56 G3:G35" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63 G42 G45 G48 G51 G54 G57 G60 G3:G39" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>" ,合格,不合格,-"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{162F50C5-3883-4F5B-B344-FDA1EEAC2C4D}"/>
-    <hyperlink ref="J12" r:id="rId2" xr:uid="{5695FD68-F1F7-453C-B763-6689D861423A}"/>
+    <hyperlink ref="J14" r:id="rId2" xr:uid="{5695FD68-F1F7-453C-B763-6689D861423A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId3"/>

--- a/document/テスト仕様書/テスト仕様書.xlsx
+++ b/document/テスト仕様書/テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BAFE8179-CDD0-4A23-8E49-0F6F3B4A8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAAFD0C6-0249-47D1-BA10-1541124138C5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{BAFE8179-CDD0-4A23-8E49-0F6F3B4A8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2241C084-EE5D-4DDB-8074-36250DC3A627}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="テスト項目" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="202">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -1609,6 +1609,177 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meibo.entry動作7</t>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像種類</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jpeg,png以外のファイル</t>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jpeg,png以外のファイルは通らない</t>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono_entry動作3</t>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品物名は1文字以上32文字以内</t>
+    <rPh sb="0" eb="2">
+      <t>シナモノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>モジイナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既定の文字数で登録できる</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono_entry動作4</t>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類、項目、詳細項目の動作</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ショウサイコウモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類、項目、詳細項目を各項目選択する</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ショウサイコウモク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択に応じて詳細項目が変わる</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ショウサイコウモク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shinamono_entry動作5</t>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考欄動作</t>
+    <rPh sb="0" eb="5">
+      <t>ビコウランドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101文字以上、絵文字を入力する</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>エモジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵文字と101文字以上は登録できない</t>
+    <rPh sb="0" eb="3">
+      <t>エモジ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1680,7 +1851,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1703,6 +1874,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1712,7 +1905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1764,6 +1957,33 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1791,6 +2011,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2150,10 +2374,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J63"/>
+  <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B63"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2378,9 +2602,15 @@
       <c r="F9" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="G9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="13">
+        <v>45209</v>
+      </c>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2399,9 +2629,15 @@
       <c r="F10" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="G10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="13">
+        <v>45209</v>
+      </c>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2775,35 +3011,41 @@
       <c r="F24" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="G24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="13">
+        <v>45209</v>
+      </c>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="8">
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I25" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J25" s="12"/>
     </row>
@@ -2812,64 +3054,70 @@
         <v>24</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="13">
+        <v>45209</v>
+      </c>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8">
         <v>25</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>94</v>
+        <v>185</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I27" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8">
         <v>26</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>131</v>
@@ -2887,16 +3135,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>131</v>
@@ -2905,25 +3153,25 @@
         <v>135</v>
       </c>
       <c r="I29" s="13">
-        <v>45209</v>
+        <v>45204</v>
       </c>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="8">
         <v>28</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>131</v>
@@ -2932,25 +3180,25 @@
         <v>135</v>
       </c>
       <c r="I30" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="8">
         <v>29</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>131</v>
@@ -2968,16 +3216,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>131</v>
@@ -2995,21 +3243,21 @@
         <v>31</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I33" s="13">
@@ -3022,16 +3270,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>131</v>
@@ -3049,16 +3297,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>131</v>
@@ -3076,16 +3324,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>131</v>
@@ -3103,16 +3351,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>131</v>
@@ -3125,26 +3373,26 @@
       </c>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8">
         <v>36</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>93</v>
+        <v>196</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="12" t="s">
         <v>135</v>
       </c>
       <c r="I38" s="13">
@@ -3157,16 +3405,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>131</v>
@@ -3179,24 +3427,24 @@
       </c>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8">
         <v>38</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>132</v>
+        <v>79</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>135</v>
@@ -3211,19 +3459,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>132</v>
+        <v>84</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>135</v>
@@ -3233,26 +3481,26 @@
       </c>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="8">
         <v>40</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="13" t="s">
         <v>135</v>
       </c>
       <c r="I42" s="13">
@@ -3265,19 +3513,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>132</v>
+        <v>54</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>135</v>
@@ -3287,21 +3535,21 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="8">
         <v>42</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>132</v>
@@ -3319,19 +3567,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>131</v>
+        <v>97</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>135</v>
@@ -3346,19 +3594,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>132</v>
+        <v>101</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>135</v>
@@ -3373,16 +3621,16 @@
         <v>45</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>132</v>
@@ -3400,19 +3648,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>131</v>
+        <v>107</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>135</v>
@@ -3427,19 +3675,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>132</v>
+        <v>104</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>135</v>
@@ -3453,52 +3701,108 @@
       <c r="B50" s="8">
         <v>48</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+      <c r="C50" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" s="13">
+        <v>45204</v>
+      </c>
       <c r="J50" s="12"/>
     </row>
     <row r="51" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="8">
         <v>49</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="13"/>
+      <c r="C51" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="13">
+        <v>45204</v>
+      </c>
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8">
         <v>50</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="C52" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I52" s="13">
+        <v>45204</v>
+      </c>
       <c r="J52" s="12"/>
     </row>
     <row r="53" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="8">
         <v>51</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
+      <c r="C53" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I53" s="13">
+        <v>45204</v>
+      </c>
       <c r="J53" s="12"/>
     </row>
     <row r="54" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3509,9 +3813,9 @@
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="11"/>
+      <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-      <c r="I54" s="13"/>
+      <c r="I54" s="12"/>
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3522,124 +3826,154 @@
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
+      <c r="I55" s="13"/>
       <c r="J55" s="12"/>
     </row>
     <row r="56" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="8">
+      <c r="B56" s="17">
         <v>54</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-    </row>
-    <row r="57" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="8">
-        <v>55</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="12"/>
-    </row>
-    <row r="58" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="8">
-        <v>56</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-    </row>
-    <row r="59" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="8">
-        <v>57</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-    </row>
-    <row r="60" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="8">
-        <v>58</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="12"/>
-    </row>
-    <row r="61" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="8">
-        <v>59</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-    </row>
-    <row r="62" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="8">
-        <v>60</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-    </row>
-    <row r="63" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="8">
-        <v>61</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="12"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+    </row>
+    <row r="58" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:G39 G42 G45 G48 G51 G54 G57 G60 G63">
+  <conditionalFormatting sqref="G46 G49 G52 G55 G58 G61 G64 G67 G3:G43">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63 G42 G45 G48 G51 G54 G57 G60 G3:G39" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67 G46 G49 G52 G55 G58 G61 G64 G3:G43" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>" ,合格,不合格,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/テスト仕様書/テスト仕様書.xlsx
+++ b/document/テスト仕様書/テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{BAFE8179-CDD0-4A23-8E49-0F6F3B4A8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2241C084-EE5D-4DDB-8074-36250DC3A627}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{BAFE8179-CDD0-4A23-8E49-0F6F3B4A8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5637B989-442D-4A76-B8D7-70A59DEF262F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="210">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -869,13 +869,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MonthView動作</t>
-    <rPh sb="9" eb="11">
-      <t>ドウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1780,6 +1773,93 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonthView動作2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonthView動作1</t>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日の表示</t>
+    <rPh sb="0" eb="3">
+      <t>タンジョウビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名簿登録している誕生日の日付を確認する</t>
+    <rPh sb="0" eb="4">
+      <t>メイボトウロク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>タンジョウビ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日と表示されている</t>
+    <rPh sb="0" eb="3">
+      <t>タンジョウビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MonthView動作3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うるう年確認</t>
+    <rPh sb="3" eb="6">
+      <t>ドシカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/29誕生日の名簿を登録し確認する</t>
+    <rPh sb="4" eb="7">
+      <t>タンジョウビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うるう年は2/29、うるう年でない年は2/28</t>
+    <rPh sb="3" eb="4">
+      <t>ドシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ドシ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1905,7 +1985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1957,25 +2037,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,6 +2089,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2310,7 +2388,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
@@ -2345,7 +2423,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2355,7 +2433,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2374,10 +2452,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J67"/>
+  <dimension ref="B2:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35:I39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2439,10 +2517,10 @@
         <v>21</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" s="13">
         <v>45204</v>
@@ -2468,10 +2546,10 @@
         <v>39</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I4" s="13">
         <v>45204</v>
@@ -2495,10 +2573,10 @@
         <v>20</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I5" s="13">
         <v>45204</v>
@@ -2510,22 +2588,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I6" s="13">
         <v>45209</v>
@@ -2549,10 +2627,10 @@
         <v>22</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="13">
         <v>45204</v>
@@ -2576,10 +2654,10 @@
         <v>25</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" s="13">
         <v>45204</v>
@@ -2591,22 +2669,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9" s="13">
         <v>45209</v>
@@ -2618,22 +2696,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I10" s="13">
         <v>45209</v>
@@ -2645,22 +2723,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I11" s="13">
         <v>45209</v>
@@ -2672,22 +2750,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" s="13">
         <v>45204</v>
@@ -2699,22 +2777,22 @@
         <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="G13" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I13" s="13">
         <v>45204</v>
@@ -2726,28 +2804,28 @@
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>146</v>
-      </c>
       <c r="F14" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I14" s="13">
         <v>45209</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -2767,10 +2845,10 @@
         <v>26</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" s="13">
         <v>45204</v>
@@ -2794,10 +2872,10 @@
         <v>44</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I16" s="13">
         <v>45204</v>
@@ -2809,22 +2887,22 @@
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I17" s="13">
         <v>45209</v>
@@ -2848,10 +2926,10 @@
         <v>32</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I18" s="13">
         <v>45204</v>
@@ -2875,10 +2953,10 @@
         <v>74</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I19" s="13">
         <v>45204</v>
@@ -2902,10 +2980,10 @@
         <v>31</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I20" s="13">
         <v>45204</v>
@@ -2917,22 +2995,22 @@
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>155</v>
-      </c>
       <c r="G21" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I21" s="13">
         <v>45209</v>
@@ -2944,28 +3022,28 @@
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="F22" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I22" s="13">
         <v>45209</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2973,22 +3051,22 @@
         <v>21</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="G23" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I23" s="13">
         <v>45209</v>
@@ -3000,22 +3078,22 @@
         <v>22</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="F24" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>182</v>
-      </c>
       <c r="G24" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I24" s="13">
         <v>45209</v>
@@ -3027,22 +3105,22 @@
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>190</v>
-      </c>
       <c r="G25" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I25" s="13">
         <v>45209</v>
@@ -3066,10 +3144,10 @@
         <v>46</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I26" s="13">
         <v>45209</v>
@@ -3081,22 +3159,22 @@
         <v>25</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>186</v>
-      </c>
       <c r="G27" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I27" s="13">
         <v>45209</v>
@@ -3120,10 +3198,10 @@
         <v>94</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I28" s="13">
         <v>45204</v>
@@ -3147,10 +3225,10 @@
         <v>54</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I29" s="13">
         <v>45204</v>
@@ -3162,22 +3240,22 @@
         <v>28</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="E30" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="F30" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="G30" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I30" s="13">
         <v>45209</v>
@@ -3201,10 +3279,10 @@
         <v>58</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I31" s="13">
         <v>45204</v>
@@ -3228,10 +3306,10 @@
         <v>59</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I32" s="13">
         <v>45204</v>
@@ -3255,10 +3333,10 @@
         <v>65</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I33" s="13">
         <v>45204</v>
@@ -3282,10 +3360,10 @@
         <v>68</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I34" s="13">
         <v>45204</v>
@@ -3309,10 +3387,10 @@
         <v>74</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I35" s="13">
         <v>45204</v>
@@ -3336,10 +3414,10 @@
         <v>70</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I36" s="13">
         <v>45204</v>
@@ -3351,22 +3429,22 @@
         <v>35</v>
       </c>
       <c r="C37" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="F37" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>193</v>
-      </c>
       <c r="G37" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I37" s="13">
         <v>45204</v>
@@ -3378,22 +3456,22 @@
         <v>36</v>
       </c>
       <c r="C38" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>197</v>
-      </c>
       <c r="G38" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I38" s="13">
         <v>45204</v>
@@ -3405,22 +3483,22 @@
         <v>37</v>
       </c>
       <c r="C39" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="F39" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>201</v>
-      </c>
       <c r="G39" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I39" s="13">
         <v>45204</v>
@@ -3444,10 +3522,10 @@
         <v>79</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I40" s="13">
         <v>45204</v>
@@ -3471,10 +3549,10 @@
         <v>84</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I41" s="13">
         <v>45204</v>
@@ -3498,10 +3576,10 @@
         <v>93</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I42" s="13">
         <v>45204</v>
@@ -3525,10 +3603,10 @@
         <v>54</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I43" s="13">
         <v>45204</v>
@@ -3552,10 +3630,10 @@
         <v>88</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="13">
         <v>45204</v>
@@ -3579,10 +3657,10 @@
         <v>97</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I45" s="13">
         <v>45204</v>
@@ -3594,22 +3672,22 @@
         <v>44</v>
       </c>
       <c r="C46" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="E46" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="F46" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="G46" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I46" s="13">
         <v>45204</v>
@@ -3621,22 +3699,22 @@
         <v>45</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>132</v>
+        <v>205</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I47" s="13">
         <v>45204</v>
@@ -3648,22 +3726,22 @@
         <v>46</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>132</v>
+        <v>209</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I48" s="13">
         <v>45204</v>
@@ -3675,22 +3753,22 @@
         <v>47</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G49" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>131</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I49" s="13">
         <v>45204</v>
@@ -3702,22 +3780,22 @@
         <v>48</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I50" s="13">
         <v>45204</v>
@@ -3729,22 +3807,22 @@
         <v>49</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>132</v>
+        <v>103</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I51" s="13">
         <v>45204</v>
@@ -3756,22 +3834,22 @@
         <v>50</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G52" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>131</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I52" s="13">
         <v>45204</v>
@@ -3783,22 +3861,22 @@
         <v>51</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I53" s="13">
         <v>45204</v>
@@ -3809,171 +3887,225 @@
       <c r="B54" s="8">
         <v>52</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
+      <c r="C54" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I54" s="13">
+        <v>45204</v>
+      </c>
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="8">
         <v>53</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="13"/>
+      <c r="C55" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55" s="13">
+        <v>45204</v>
+      </c>
       <c r="J55" s="12"/>
     </row>
     <row r="56" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="17">
+      <c r="B56" s="8">
         <v>54</v>
       </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-    </row>
-    <row r="57" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-    </row>
-    <row r="58" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="8">
+        <v>55</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="8">
+        <v>56</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+    </row>
+    <row r="60" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
       <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="19"/>
+    </row>
+    <row r="61" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+    </row>
+    <row r="62" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+    </row>
+    <row r="63" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="19"/>
+    </row>
+    <row r="64" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+    </row>
+    <row r="65" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+    </row>
+    <row r="66" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
       <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="20"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="19"/>
+    </row>
+    <row r="67" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+    </row>
+    <row r="68" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+    </row>
+    <row r="69" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G46 G49 G52 G55 G58 G61 G64 G67 G3:G43">
+  <conditionalFormatting sqref="G3:G43 G51 G54 G57 G60 G63 G66 G69 G46:G48">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67 G46 G49 G52 G55 G58 G61 G64 G3:G43" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G69 G3:G43 G51 G54 G57 G60 G63 G66 G46:G48" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>" ,合格,不合格,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/テスト仕様書/テスト仕様書.xlsx
+++ b/document/テスト仕様書/テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{BAFE8179-CDD0-4A23-8E49-0F6F3B4A8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5637B989-442D-4A76-B8D7-70A59DEF262F}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{BAFE8179-CDD0-4A23-8E49-0F6F3B4A8784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54BF348-26B7-45C2-BA91-47E89D9EFD48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="テスト項目" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テスト項目!$A$1:$K$43</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="249">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -603,17 +603,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>meiboentry.jsp動作1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>meiboentry.jsp動作2</t>
-    <rPh sb="14" eb="16">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>各項目の動作、画像表示、リセット</t>
     <rPh sb="0" eb="3">
       <t>カクコウモク</t>
@@ -1310,52 +1299,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>meibo.entry動作4</t>
-    <rPh sb="11" eb="13">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字数、絵文字確認</t>
-    <rPh sb="0" eb="3">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>エモジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各項目に絵文字を入力
-よみ、氏名、備考に文字数制限以上に入力する</t>
-    <rPh sb="0" eb="3">
-      <t>カクコウモク</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>エモジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="20" eb="27">
-      <t>モジスウセイゲンイジョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1419,10 +1362,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>meibo.entry動作5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>誕生日の設定</t>
     <rPh sb="0" eb="3">
       <t>タンジョウビ</t>
@@ -1479,26 +1418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字入力</t>
-    <rPh sb="0" eb="4">
-      <t>モジニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6文字以上20文字以内でのみ登録可能</t>
-    <rPh sb="1" eb="5">
-      <t>モジイジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>モジイナイ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>トウロクカノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>password確認</t>
     <rPh sb="8" eb="10">
       <t>カクニン</t>
@@ -1523,34 +1442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>signup動作1</t>
-    <rPh sb="6" eb="8">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>signup動作2</t>
-    <rPh sb="6" eb="8">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>signup 動作3</t>
-    <rPh sb="7" eb="9">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>meibo.entry動作6</t>
-    <rPh sb="11" eb="13">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像サイズ</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -1606,13 +1497,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>meibo.entry動作7</t>
-    <rPh sb="11" eb="13">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像種類</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -1860,6 +1744,353 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>トシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数確認下限</t>
+    <rPh sb="0" eb="5">
+      <t>モジスウカクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数確認上限</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0～5文字入力</t>
+    <rPh sb="3" eb="7">
+      <t>モジニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6，20文字入力</t>
+    <rPh sb="4" eb="8">
+      <t>モジニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21文字以上入力</t>
+    <rPh sb="2" eb="8">
+      <t>モジイジョウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21文字以上は入力不可能</t>
+    <rPh sb="2" eb="6">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>ニュウリョクフカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラート表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録可能</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup動作1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup動作2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup動作3</t>
+  </si>
+  <si>
+    <t>signup動作4</t>
+  </si>
+  <si>
+    <t>signup動作5</t>
+  </si>
+  <si>
+    <t>meiboentry動作1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry動作2</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry動作4</t>
+  </si>
+  <si>
+    <t>meiboentry動作5</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry動作6</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry動作7</t>
+  </si>
+  <si>
+    <t>meiboentry動作8</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry動作9</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry動作10</t>
+  </si>
+  <si>
+    <t>meiboentry動作11</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry動作12</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry動作13</t>
+  </si>
+  <si>
+    <t>meiboentry動作14</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry動作15</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よみ文字数1</t>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よみ文字数2</t>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よみ文字数3</t>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meiboentry動作16</t>
+  </si>
+  <si>
+    <t>氏名文字数1</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名文字数2</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名文字数3</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考文字数4</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考文字数5</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考文字数6</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力せず登録</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力せず登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラートが表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,30文字入力する</t>
+    <rPh sb="4" eb="8">
+      <t>モジニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,20文字入力する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,100文字入力する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>31文字以上入力</t>
+    <rPh sb="2" eb="8">
+      <t>モジイジョウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101文字以上入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21文字以上入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>31文字以上入力できない</t>
+    <rPh sb="2" eb="6">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21文字以上入力できない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101文字以上入力できない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵文字入力</t>
+    <rPh sb="0" eb="3">
+      <t>エモジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よみ、氏名、備考に絵文字を入力</t>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エモジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2093,6 +2324,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2388,7 +2623,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
@@ -2423,7 +2658,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2433,7 +2668,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2452,10 +2687,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J69"/>
+  <dimension ref="B2:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2517,10 +2752,10 @@
         <v>21</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="I3" s="13">
         <v>45204</v>
@@ -2546,10 +2781,10 @@
         <v>39</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="I4" s="13">
         <v>45204</v>
@@ -2573,10 +2808,10 @@
         <v>20</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="I5" s="13">
         <v>45204</v>
@@ -2588,22 +2823,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I6" s="13">
         <v>45209</v>
@@ -2627,10 +2862,10 @@
         <v>22</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="I7" s="13">
         <v>45204</v>
@@ -2654,10 +2889,10 @@
         <v>25</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I8" s="13">
         <v>45204</v>
@@ -2669,25 +2904,25 @@
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I9" s="13">
-        <v>45209</v>
+        <v>45212</v>
       </c>
       <c r="J9" s="12"/>
     </row>
@@ -2696,25 +2931,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I10" s="13">
-        <v>45209</v>
+        <v>45212</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -2723,22 +2958,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" s="13">
         <v>45209</v>
@@ -2750,25 +2985,25 @@
         <v>10</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I12" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J12" s="12"/>
     </row>
@@ -2777,25 +3012,25 @@
         <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="I13" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J13" s="12"/>
     </row>
@@ -2804,51 +3039,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I14" s="13">
-        <v>45209</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>146</v>
-      </c>
+        <v>45204</v>
+      </c>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8">
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I15" s="13">
         <v>45204</v>
@@ -2860,52 +3093,54 @@
         <v>14</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I16" s="13">
-        <v>45204</v>
-      </c>
-      <c r="J16" s="12"/>
+        <v>45209</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="8">
         <v>15</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I17" s="13">
-        <v>45209</v>
+        <v>45204</v>
       </c>
       <c r="J17" s="12"/>
     </row>
@@ -2914,22 +3149,22 @@
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I18" s="13">
         <v>45204</v>
@@ -2941,25 +3176,25 @@
         <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I19" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J19" s="12"/>
     </row>
@@ -2968,22 +3203,22 @@
         <v>18</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I20" s="13">
         <v>45204</v>
@@ -2995,135 +3230,133 @@
         <v>19</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I21" s="13">
-        <v>45209</v>
+        <v>45204</v>
       </c>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I22" s="13">
-        <v>45209</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45204</v>
+      </c>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8">
         <v>21</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I23" s="13">
         <v>45209</v>
       </c>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8">
         <v>22</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I24" s="13">
-        <v>45209</v>
+        <v>45212</v>
       </c>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="8">
         <v>23</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I25" s="13">
-        <v>45209</v>
+        <v>45212</v>
       </c>
       <c r="J25" s="12"/>
     </row>
@@ -3132,25 +3365,25 @@
         <v>24</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I26" s="13">
-        <v>45209</v>
+        <v>45212</v>
       </c>
       <c r="J26" s="12"/>
     </row>
@@ -3159,52 +3392,52 @@
         <v>25</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I27" s="13">
-        <v>45209</v>
+        <v>45212</v>
       </c>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8">
         <v>26</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>94</v>
+        <v>238</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I28" s="13">
-        <v>45204</v>
+        <v>45212</v>
       </c>
       <c r="J28" s="12"/>
     </row>
@@ -3213,25 +3446,25 @@
         <v>27</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>52</v>
+        <v>230</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I29" s="13">
-        <v>45204</v>
+        <v>45212</v>
       </c>
       <c r="J29" s="12"/>
     </row>
@@ -3240,52 +3473,52 @@
         <v>28</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I30" s="13">
-        <v>45209</v>
+        <v>45212</v>
       </c>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="8">
         <v>29</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I31" s="13">
-        <v>45204</v>
+        <v>45212</v>
       </c>
       <c r="J31" s="12"/>
     </row>
@@ -3294,133 +3527,135 @@
         <v>30</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I32" s="13">
-        <v>45204</v>
+        <v>45212</v>
       </c>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="8">
         <v>31</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I33" s="13">
-        <v>45204</v>
-      </c>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45209</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8">
         <v>32</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="I34" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="8">
         <v>33</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="I35" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="8">
         <v>34</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="I36" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -3429,25 +3664,25 @@
         <v>35</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="I37" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J37" s="12"/>
     </row>
@@ -3456,49 +3691,49 @@
         <v>36</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="I38" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="8">
         <v>37</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>200</v>
+        <v>50</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="I39" s="13">
         <v>45204</v>
@@ -3510,22 +3745,22 @@
         <v>38</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="I40" s="13">
         <v>45204</v>
@@ -3537,49 +3772,49 @@
         <v>39</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="I41" s="13">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="8">
         <v>40</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>93</v>
+        <v>57</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I42" s="13">
         <v>45204</v>
@@ -3591,49 +3826,49 @@
         <v>41</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="I43" s="13">
         <v>45204</v>
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="8">
         <v>42</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>134</v>
+        <v>65</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="I44" s="13">
         <v>45204</v>
@@ -3645,22 +3880,22 @@
         <v>43</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>131</v>
+        <v>68</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I45" s="13">
         <v>45204</v>
@@ -3672,22 +3907,22 @@
         <v>44</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I46" s="13">
         <v>45204</v>
@@ -3699,22 +3934,22 @@
         <v>45</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I47" s="13">
         <v>45204</v>
@@ -3726,22 +3961,22 @@
         <v>46</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I48" s="13">
         <v>45204</v>
@@ -3753,22 +3988,22 @@
         <v>47</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>131</v>
+        <v>183</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I49" s="13">
         <v>45204</v>
@@ -3780,22 +4015,22 @@
         <v>48</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>131</v>
+        <v>187</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I50" s="13">
         <v>45204</v>
@@ -3807,22 +4042,22 @@
         <v>49</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I51" s="13">
         <v>45204</v>
@@ -3834,49 +4069,49 @@
         <v>50</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>131</v>
+        <v>82</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I52" s="13">
         <v>45204</v>
       </c>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="8">
         <v>51</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>134</v>
+        <v>90</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="I53" s="13">
         <v>45204</v>
@@ -3888,49 +4123,49 @@
         <v>52</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I54" s="13">
         <v>45204</v>
       </c>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="8">
         <v>53</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I55" s="13">
         <v>45204</v>
@@ -3941,177 +4176,474 @@
       <c r="B56" s="8">
         <v>54</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+      <c r="C56" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" s="13">
+        <v>45204</v>
+      </c>
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="8">
         <v>55</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="13"/>
+      <c r="C57" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I57" s="13">
+        <v>45204</v>
+      </c>
       <c r="J57" s="12"/>
     </row>
     <row r="58" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8">
         <v>56</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
+      <c r="C58" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
+      <c r="B59" s="8">
+        <v>57</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I59" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J59" s="12"/>
     </row>
     <row r="60" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="19"/>
+      <c r="B60" s="8">
+        <v>58</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
+      <c r="B61" s="8">
+        <v>59</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I61" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J61" s="12"/>
     </row>
     <row r="62" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
+      <c r="B62" s="8">
+        <v>60</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I62" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J62" s="12"/>
     </row>
     <row r="63" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="19"/>
+      <c r="B63" s="8">
+        <v>61</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J63" s="12"/>
     </row>
     <row r="64" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
+      <c r="B64" s="8">
+        <v>62</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J64" s="12"/>
     </row>
     <row r="65" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
+      <c r="B65" s="8">
+        <v>63</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I65" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J65" s="12"/>
     </row>
     <row r="66" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="19"/>
+      <c r="B66" s="8">
+        <v>64</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I66" s="13">
+        <v>45204</v>
+      </c>
+      <c r="J66" s="12"/>
     </row>
     <row r="67" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
+      <c r="B67" s="8">
+        <v>65</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
     </row>
     <row r="68" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
+      <c r="B68" s="8">
+        <v>66</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="12"/>
     </row>
     <row r="69" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="19"/>
+      <c r="B69" s="8">
+        <v>67</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+    </row>
+    <row r="71" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="19"/>
+    </row>
+    <row r="72" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+    </row>
+    <row r="73" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+    </row>
+    <row r="74" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="19"/>
+    </row>
+    <row r="75" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+    </row>
+    <row r="76" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+    </row>
+    <row r="77" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="19"/>
+    </row>
+    <row r="78" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+    </row>
+    <row r="79" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+    </row>
+    <row r="80" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="G3:G43 G51 G54 G57 G60 G63 G66 G69 G46:G48">
+  <conditionalFormatting sqref="G57:G59 G62 G65 G68 G71 G74 G77 G80 G3:G54">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G69 G3:G43 G51 G54 G57 G60 G63 G66 G46:G48" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G80 G57:G59 G62 G65 G68 G71 G74 G77 G3:G54" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>" ,合格,不合格,-"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{162F50C5-3883-4F5B-B344-FDA1EEAC2C4D}"/>
-    <hyperlink ref="J14" r:id="rId2" xr:uid="{5695FD68-F1F7-453C-B763-6689D861423A}"/>
+    <hyperlink ref="J16" r:id="rId2" xr:uid="{5695FD68-F1F7-453C-B763-6689D861423A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId3"/>
